--- a/statics/MEDIASTODASUNIDADES_EJA.xlsx
+++ b/statics/MEDIASTODASUNIDADES_EJA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f28ae49758e922e1/Desktop/devbook/editabletable/statics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{1B3960D6-2979-4C5A-B64E-A41AB16534B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47AC4C02-FC73-4517-8602-68D0C0AEE90B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{1B3960D6-2979-4C5A-B64E-A41AB16534B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D879EAB-33B9-43BA-AA1C-04EABFDFAC96}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="1440" windowWidth="17100" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="turma" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cavolini"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="4">
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +286,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -298,7 +308,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +680,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,50 +694,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1218,8 +1231,8 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.19685039370078741"/>
